--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>EF</t>
+  </si>
+  <si>
+    <t>Shuttle Area</t>
+  </si>
+  <si>
+    <t>7-24</t>
+  </si>
+  <si>
+    <t>Yemekhane</t>
+  </si>
+  <si>
+    <t>Kütüphane</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,10 +141,10 @@
         <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>269.0</v>
+        <v>259.0</v>
       </c>
       <c r="G2" t="n">
-        <v>156.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="3">
@@ -156,6 +168,98 @@
       </c>
       <c r="G3" t="n">
         <v>164.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>268.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>144.0</v>
       </c>
     </row>
   </sheetData>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>NERO</t>
   </si>
   <si>
-    <t>EF</t>
+    <t>EF_AB1</t>
   </si>
   <si>
     <t>Shuttle Area</t>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Kütüphane</t>
+  </si>
+  <si>
+    <t>LF_AB3</t>
+  </si>
+  <si>
+    <t>FEAS_AB2</t>
+  </si>
+  <si>
+    <t>SCOLA</t>
   </si>
 </sst>
 </file>
@@ -95,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -262,6 +271,75 @@
         <v>144.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>204.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>191.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>174.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>SCOLA</t>
+  </si>
+  <si>
+    <t>QUAD</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,6 +343,29 @@
         <v>174.0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>175.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -210,7 +210,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -222,7 +222,7 @@
         <v>0.65</v>
       </c>
       <c r="F5" t="n">
-        <v>269.0</v>
+        <v>285.0</v>
       </c>
       <c r="G5" t="n">
         <v>156.0</v>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -314,10 +314,10 @@
         <v>0.65</v>
       </c>
       <c r="F9" t="n">
-        <v>244.0</v>
+        <v>233.0</v>
       </c>
       <c r="G9" t="n">
-        <v>191.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="10">

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>QUAD</t>
+  </si>
+  <si>
+    <t>AB4</t>
+  </si>
+  <si>
+    <t>STARBACKS</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,16 +153,16 @@
         <v>3.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>259.0</v>
+        <v>177.0</v>
       </c>
       <c r="G2" t="n">
-        <v>161.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="3">
@@ -314,10 +320,10 @@
         <v>0.65</v>
       </c>
       <c r="F9" t="n">
-        <v>233.0</v>
+        <v>244.0</v>
       </c>
       <c r="G9" t="n">
-        <v>180.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="10">
@@ -364,6 +370,52 @@
       </c>
       <c r="G11" t="n">
         <v>175.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>206.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>163.0</v>
       </c>
     </row>
   </sheetData>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -59,16 +59,25 @@
     <t>FEAS_AB2</t>
   </si>
   <si>
+    <t>QUAD</t>
+  </si>
+  <si>
+    <t>AB4</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
     <t>SCOLA</t>
   </si>
   <si>
-    <t>QUAD</t>
-  </si>
-  <si>
-    <t>AB4</t>
-  </si>
-  <si>
-    <t>STARBACKS</t>
+    <t>Kahve</t>
+  </si>
+  <si>
+    <t>Mezuniyet Alanı</t>
+  </si>
+  <si>
+    <t>Mini-Quad</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,16 +162,16 @@
         <v>3.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>177.0</v>
+        <v>260.0</v>
       </c>
       <c r="G2" t="n">
-        <v>251.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="3">
@@ -245,10 +254,10 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
         <v>230.0</v>
@@ -331,22 +340,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.45</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>200.0</v>
+        <v>277.0</v>
       </c>
       <c r="G10" t="n">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="11">
@@ -354,10 +363,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.45</v>
@@ -366,10 +375,10 @@
         <v>0.65</v>
       </c>
       <c r="F11" t="n">
-        <v>282.0</v>
+        <v>194.0</v>
       </c>
       <c r="G11" t="n">
-        <v>175.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="12">
@@ -377,22 +386,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
         <v>2.0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="n">
         <v>0.65</v>
       </c>
       <c r="F12" t="n">
-        <v>210.0</v>
+        <v>180.0</v>
       </c>
       <c r="G12" t="n">
-        <v>206.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="13">
@@ -403,19 +412,88 @@
         <v>4.0</v>
       </c>
       <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F13" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>174.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C14" t="n">
         <v>3.0</v>
       </c>
-      <c r="D13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>241.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>163.0</v>
+      <c r="D14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>236.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>196.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>201.0</v>
       </c>
     </row>
   </sheetData>

--- a/Points of Interest.xlsx
+++ b/Points of Interest.xlsx
@@ -162,10 +162,10 @@
         <v>3.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
         <v>260.0</v>
